--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/menu/APP-85000-4000$-zero.rsm.report-SIDE.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/menu/APP-85000-4000$-zero.rsm.report-SIDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/menu/zero-ambient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0A738F-9977-B940-833B-472270BEF352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E406530-754F-164A-BEFF-41FDA72B4783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-41120" yWindow="-940" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,10 +122,10 @@
     <t>报表</t>
   </si>
   <si>
-    <t>c10a78d2-2a2f-4a71-a553-291e2ab60879</t>
-  </si>
-  <si>
     <t>zero.rsm.report</t>
+  </si>
+  <si>
+    <t>964d7d28-445f-47ed-8fce-29a163913cd4</t>
   </si>
 </sst>
 </file>
@@ -609,7 +609,7 @@
   <dimension ref="A2:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>22</v>
@@ -727,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>27</v>
